--- a/ciel's node.xlsx
+++ b/ciel's node.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\learn\ciel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE509-8E19-442A-9855-43E79BB457F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C605301-9049-4883-9D32-2D1ACA58C8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="4575" windowWidth="20880" windowHeight="11865" xr2:uid="{9E9B15EF-CC5C-425E-AD86-5A8A7F6F57B8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9E9B15EF-CC5C-425E-AD86-5A8A7F6F57B8}"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="1" r:id="rId1"/>
@@ -302,23 +302,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,10 +342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,8 +645,8 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="38" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="38" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,51 +660,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
